--- a/ELearningWebsite/src/main/webapp/static/file/excel/vocab/1.contracts.xlsx
+++ b/ELearningWebsite/src/main/webapp/static/file/excel/vocab/1.contracts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chuyen Nganh\Data\excel\vocab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6198A80-F800-47E9-B185-19B1BB5F7D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72773C48-8E78-4FEE-A95F-AE0FEBC1ADFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="600" windowWidth="11508" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11448" yWindow="0" windowWidth="11508" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>number</t>
   </si>
@@ -220,6 +220,42 @@
   </si>
   <si>
     <t>The father made provision for his children through his will.</t>
+  </si>
+  <si>
+    <t>resolve.jpg</t>
+  </si>
+  <si>
+    <t>specific.jpg</t>
+  </si>
+  <si>
+    <t>specific.mp3</t>
+  </si>
+  <si>
+    <t>resolve.mp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resolve </t>
+  </si>
+  <si>
+    <t>/ri'zɔlv/</t>
+  </si>
+  <si>
+    <t>(v, n): (v) giải quyết, (n) sự kiên quyết / sự tin chắc</t>
+  </si>
+  <si>
+    <t>The manager resolved to clean out all the files at the end of the week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specific </t>
+  </si>
+  <si>
+    <t>/spi'sifik/</t>
+  </si>
+  <si>
+    <t>(adj): riêng biệt, cụ thể, đặc trưng; rõ ràng, rành mạch</t>
+  </si>
+  <si>
+    <t>The customer's specific complaint was not addressed in his e-mail.</t>
   </si>
 </sst>
 </file>
@@ -267,7 +303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -327,22 +363,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -375,9 +400,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -718,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,7 +986,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -973,7 +995,7 @@
       <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -984,6 +1006,52 @@
       </c>
       <c r="G11" s="5" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
